--- a/VodovozReports/Reports/Cars/ReportOnTheCostsOfOperatingCars.xlsx
+++ b/VodovozReports/Reports/Cars/ReportOnTheCostsOfOperatingCars.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Принадлежность:</t>
   </si>
   <si>
-    <t xml:space="preserve">???</t>
+    <t xml:space="preserve">{{CarOwnType}}</t>
   </si>
   <si>
     <t xml:space="preserve">Типы авто:</t>
@@ -138,7 +138,7 @@
         <family val="0"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">CarGeographicGroups</t>
+      <t xml:space="preserve">CarOwnType</t>
     </r>
     <r>
       <rPr>
@@ -561,10 +561,10 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.28"/>
@@ -573,7 +573,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.01"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="9.13"/>
   </cols>
@@ -598,7 +598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>

--- a/VodovozReports/Reports/Cars/ReportOnTheCostsOfOperatingCars.xlsx
+++ b/VodovozReports/Reports/Cars/ReportOnTheCostsOfOperatingCars.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">Затраты при эксплуатации ТС за период {{StartDate.ToString("dd-MM-yyyy")}} – {{EndDate.ToString("dd-MM-yyyy")}}</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">Вид события</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основание</t>
   </si>
   <si>
     <t xml:space="preserve">Комментаий</t>
@@ -238,6 +241,38 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">SubjectType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{{item.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Foundation</t>
     </r>
     <r>
       <rPr>
@@ -407,7 +442,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -422,6 +457,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="thin"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -448,7 +490,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -466,6 +508,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -558,10 +604,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -622,15 +668,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H6" s="3" t="s">
+    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H6" s="0"/>
+      <c r="I6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -649,45 +696,52 @@
       <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="J7" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="8" t="s">
         <v>24</v>
       </c>
+      <c r="E8" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="I8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:K1"/>

--- a/VodovozReports/Reports/Cars/ReportOnTheCostsOfOperatingCars.xlsx
+++ b/VodovozReports/Reports/Cars/ReportOnTheCostsOfOperatingCars.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="Rows" vbProcedure="false">Лист1!$A$8:$I$9</definedName>
+    <definedName function="false" hidden="false" name="Rows" vbProcedure="false">Лист1!$A$8:$J$9</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -607,7 +607,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>

--- a/VodovozReports/Reports/Cars/ReportOnTheCostsOfOperatingCars.xlsx
+++ b/VodovozReports/Reports/Cars/ReportOnTheCostsOfOperatingCars.xlsx
@@ -70,16 +70,16 @@
     <t xml:space="preserve">Тип авто</t>
   </si>
   <si>
-    <t xml:space="preserve">начало события</t>
-  </si>
-  <si>
-    <t xml:space="preserve">окончание события</t>
+    <t xml:space="preserve">Начало события</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Окончание события</t>
   </si>
   <si>
     <t xml:space="preserve">Вид события</t>
   </si>
   <si>
-    <t xml:space="preserve">Основание</t>
+    <t xml:space="preserve">Основание. Номер и дата документа</t>
   </si>
   <si>
     <t xml:space="preserve">Комментаий</t>
@@ -123,68 +123,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{{item.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">CarOwnType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">}}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{{item.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">CarType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">}}</t>
-    </r>
+    <t xml:space="preserve">{{item.CarTypeOfUseString}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{item.CarOwnTypeString}}</t>
   </si>
   <si>
     <r>
@@ -205,7 +147,7 @@
         <family val="0"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">SubjectStart.ToString("dddd, dd MMMM yyyy")</t>
+      <t xml:space="preserve">SubjectStart.ToString("dd/MM/yyyy")</t>
     </r>
     <r>
       <rPr>
@@ -219,7 +161,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">{{item.SubjectEnd.ToString("dddd, dd MMMM yyyy")}}</t>
+    <t xml:space="preserve">{{item.SubjectEnd.ToString("dd/MM/yyyy")}}</t>
   </si>
   <si>
     <r>
@@ -387,7 +329,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="0"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -395,7 +337,7 @@
       <sz val="14"/>
       <color rgb="FF444444"/>
       <name val="Times New Roman"/>
-      <family val="0"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -415,19 +357,19 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9.5"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="0"/>
@@ -490,11 +432,15 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -507,24 +453,32 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -604,144 +558,143 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.01"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="35.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="2" width="9.13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="2" t="s">
+    <row r="1" s="2" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="s">
+    <row r="2" s="2" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
+    <row r="3" s="2" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="3" t="s">
+    <row r="4" s="2" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3" t="s">
+    <row r="5" s="2" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H6" s="0"/>
-      <c r="I6" s="3" t="s">
+    <row r="6" s="2" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="8" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A8" s="6" t="s">
+    <row r="8" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="10" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:K1"/>

--- a/VodovozReports/Reports/Cars/ReportOnTheCostsOfOperatingCars.xlsx
+++ b/VodovozReports/Reports/Cars/ReportOnTheCostsOfOperatingCars.xlsx
@@ -432,33 +432,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -469,16 +469,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -561,113 +557,156 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="35.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="32.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="39.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="28.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.31"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="2" width="9.13"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="3" t="s">
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
-    <row r="2" s="2" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4" t="s">
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="3" s="2" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="4" t="s">
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
-    <row r="4" s="2" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4" t="s">
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
-    <row r="5" s="2" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="4" t="s">
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
-    <row r="6" s="2" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I6" s="4" t="s">
+    <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" s="8" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -676,22 +715,22 @@
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>30</v>
       </c>
     </row>

--- a/VodovozReports/Reports/Cars/ReportOnTheCostsOfOperatingCars.xlsx
+++ b/VodovozReports/Reports/Cars/ReportOnTheCostsOfOperatingCars.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="Rows" vbProcedure="false">Лист1!$A$8:$J$9</definedName>
+    <definedName function="false" hidden="false" name="Rows" vbProcedure="false">Лист1!$A$8:$L$9</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">Затраты при эксплуатации ТС за период {{StartDate.ToString("dd-MM-yyyy")}} – {{EndDate.ToString("dd-MM-yyyy")}}</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t xml:space="preserve">{{SumPrice}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{SumRefund}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{SumCompanyExpenses}}</t>
   </si>
   <si>
     <t xml:space="preserve">№</t>
@@ -86,7 +92,13 @@
     <t xml:space="preserve">Комментарий</t>
   </si>
   <si>
-    <t xml:space="preserve">Стоимость</t>
+    <t xml:space="preserve">Общие затраты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Возмещение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Затраты компании</t>
   </si>
   <si>
     <t xml:space="preserve">{{index+1}} </t>
@@ -117,6 +129,12 @@
   </si>
   <si>
     <t xml:space="preserve">{{item.Price}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{item.Refund}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{item.CompanyExpenses}}</t>
   </si>
 </sst>
 </file>
@@ -126,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -173,6 +191,13 @@
       <name val="Times New Roman"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -212,6 +237,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -238,7 +270,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -271,6 +303,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -281,6 +317,14 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -304,10 +348,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -320,8 +364,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="28.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="38.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="3" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="15.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="18.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="3" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -418,70 +464,92 @@
       <c r="J6" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" s="11" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8" t="s">
+    </row>
+    <row r="7" s="14" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="F7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="H7" s="9" t="s">
         <v>20</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/VodovozReports/Reports/Cars/ReportOnTheCostsOfOperatingCars.xlsx
+++ b/VodovozReports/Reports/Cars/ReportOnTheCostsOfOperatingCars.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Типы авто:</t>
   </si>
   <si>
-    <t xml:space="preserve">{{CarType}}</t>
+    <t xml:space="preserve">{{CarTypeOfUse}}</t>
   </si>
   <si>
     <t xml:space="preserve">Вид события:</t>
@@ -144,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -198,6 +198,14 @@
       <name val="Times New Roman"/>
       <family val="0"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -307,23 +315,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -350,8 +358,8 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -471,7 +479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" s="14" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="14" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>

--- a/VodovozReports/Reports/Cars/ReportOnTheCostsOfOperatingCars.xlsx
+++ b/VodovozReports/Reports/Cars/ReportOnTheCostsOfOperatingCars.xlsx
@@ -144,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -171,14 +171,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="0"/>
@@ -193,19 +186,20 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b val="true"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="0"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -278,7 +272,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -291,52 +285,68 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -356,13 +366,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.56"/>
@@ -451,13 +461,17 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -466,98 +480,108 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" s="14" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+    <row r="7" s="16" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -565,7 +589,7 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C5:N5"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/VodovozReports/Reports/Cars/ReportOnTheCostsOfOperatingCars.xlsx
+++ b/VodovozReports/Reports/Cars/ReportOnTheCostsOfOperatingCars.xlsx
@@ -369,7 +369,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
